--- a/Auto Loan Calculator.xlsx
+++ b/Auto Loan Calculator.xlsx
@@ -8946,16 +8946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>607868</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>206086</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142008</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>150668</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>102177</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>109104</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>60613</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9368,8 +9368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q198"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:H20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M64" sqref="M64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9880,13 +9880,13 @@
         <f>E65+B23+(B24/B26)*B25</f>
         <v>561.50917249922907</v>
       </c>
-      <c r="G63" s="24" t="e">
-        <f>K65+H23+(H24/H26)*H25</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M63" s="24" t="e">
-        <f>Q65+N23+(N24/N26)*N25</f>
-        <v>#DIV/0!</v>
+      <c r="G63" s="24">
+        <f>K65+B23+(B24/B26)*B25</f>
+        <v>666.92252346322982</v>
+      </c>
+      <c r="M63" s="24">
+        <f>Q65+B23+(B24/B26)*B25</f>
+        <v>555.02103703632781</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
